--- a/src/main/resources/Testdata.xlsx
+++ b/src/main/resources/Testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeanlexterserra/IdeaProjects/SGBBAPPAutomation/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08ADB1F8-8989-184C-A07B-A9EC6734FF19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9C54B2-24B2-644F-BE0A-50B1511A4276}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7180" yWindow="-22380" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="-14520" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testdata" sheetId="4" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>IOS Locator</t>
   </si>
   <si>
-    <t>loginUser1</t>
-  </si>
-  <si>
     <t>btnGetStarted</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   <si>
     <t>text1=Welcome
 to Globe myBusiness</t>
+  </si>
+  <si>
+    <t>verifyGetStartedPages</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -487,19 +487,19 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -548,7 +548,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -557,36 +557,36 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Testdata.xlsx
+++ b/src/main/resources/Testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeanlexterserra/Desktop/SeleniumFramework/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EE7F41-F9FF-3548-B4C9-D0B3D6FB5DD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2C0C84-19D4-7648-A456-3430ADA3A239}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2220" yWindow="-21360" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testdata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>TCName</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>password=Admin123</t>
+  </si>
+  <si>
+    <t>loginUser2</t>
   </si>
 </sst>
 </file>
@@ -149,13 +152,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,8 +379,8 @@
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -394,20 +397,20 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -419,9 +422,15 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1445,8 +1454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/main/resources/Testdata.xlsx
+++ b/src/main/resources/Testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeanlexterserra/Desktop/SeleniumFramework/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2C0C84-19D4-7648-A456-3430ADA3A239}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAC6349-E8FA-FA4B-922B-8C4676BD5712}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testdata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>TCName</t>
   </si>
@@ -87,6 +87,15 @@
   <si>
     <t>loginUser2</t>
   </si>
+  <si>
+    <t>lblIsolationWard</t>
+  </si>
+  <si>
+    <t>Isolation Ward</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
 </sst>
 </file>
 
@@ -113,18 +122,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -148,13 +151,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -379,7 +380,7 @@
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -410,7 +411,7 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -425,7 +426,7 @@
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1452,10 +1453,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1464,12 +1465,9 @@
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="60.5" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1482,10 +1480,8 @@
       <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -1498,10 +1494,8 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1514,14 +1508,12 @@
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1530,50 +1522,55 @@
       <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2558,6 +2555,7 @@
     <row r="998" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1001" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
